--- a/Old Swopit commands/Output file.xlsx
+++ b/Old Swopit commands/Output file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Classify\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhuismans/Desktop/Swopit/Classify/Old Swopit commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8AC80D-E981-4CF8-ABA1-8E5DBCC6B7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C7A838-0508-7145-A47D-56B7B740C18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="692" activeTab="4" xr2:uid="{A6C6FE63-4064-4880-97C0-97B924474814}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" tabRatio="692" activeTab="3" xr2:uid="{A6C6FE63-4064-4880-97C0-97B924474814}"/>
   </bookViews>
   <sheets>
     <sheet name="Probability scores" sheetId="1" r:id="rId1"/>
@@ -191,11 +191,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,13 +517,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -565,118 +565,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
     </row>
@@ -693,14 +693,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.21875" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -714,21 +714,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -764,7 +764,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>25</v>
@@ -776,25 +776,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
@@ -813,32 +813,31 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.21875" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -856,11 +855,11 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -886,7 +885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -912,7 +911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -920,19 +919,19 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
@@ -951,18 +950,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB390411-53D2-48B4-AC6A-FF445EFE2C89}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.21875" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -976,14 +975,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -997,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1011,73 +1010,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
@@ -1092,25 +1091,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C57D1F0-7FBA-4EB0-89E1-1A3A9BDF6BD0}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.21875" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
@@ -1118,7 +1117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1139,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1166,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1192,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1200,19 +1199,19 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
